--- a/biology/Botanique/Manoir_de_Villers/Manoir_de_Villers.xlsx
+++ b/biology/Botanique/Manoir_de_Villers/Manoir_de_Villers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le manoir de Villers est un manoir situé sur la commune de Saint-Pierre-de-Manneville, dans le département de la Seine-Maritime. Les façades et toitures du corps de logis, ainsi que la chapelle font l’objet d’une inscription au titre des monuments historiques depuis le 6 août 1997[1].
+Le manoir de Villers est un manoir situé sur la commune de Saint-Pierre-de-Manneville, dans le département de la Seine-Maritime. Les façades et toitures du corps de logis, ainsi que la chapelle font l’objet d’une inscription au titre des monuments historiques depuis le 6 août 1997.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le manoir de Villers était à l'origine une « maison de maître » construite en 1581, et faite en pierre de Caumont, avec un étage à pans de bois et recouverte de petites tuiles. 
-En 1764, Antoine-Michel Blondel, seigneur de Berthenonville, contrôleur en la Chancellerie près le Parlement de Normandie, acquiert la seigneurie de Villers. Il la lègue en 1784 à son neveu, Michel-Louis Mery, premier échevin de Rouen (frère de l'abbé Claude Nicolas François Mery de Berthenonville, vicaire-général du diocèse de Bayeux et grand-père d'Édouard Mery). Mery de Villers acquiert également en 1786 le château voisin de Bellegarde[2], qu'il transmet à son fils Michel-Alexandre Mery, conseiller-maître en la Chambre des comptes de Normandie et conseiller municipal de Rouen.
-Il connut de nombreuses transformations au cours des siècles, jusqu'à devenir ce grand manoir néo-normand aux toitures inspirées des plus belles maisons de Rouen et aux façades habillées d'un curieux trompe-l'œil, réalisation de l'architecte Charles Lassire[3].
+En 1764, Antoine-Michel Blondel, seigneur de Berthenonville, contrôleur en la Chancellerie près le Parlement de Normandie, acquiert la seigneurie de Villers. Il la lègue en 1784 à son neveu, Michel-Louis Mery, premier échevin de Rouen (frère de l'abbé Claude Nicolas François Mery de Berthenonville, vicaire-général du diocèse de Bayeux et grand-père d'Édouard Mery). Mery de Villers acquiert également en 1786 le château voisin de Bellegarde, qu'il transmet à son fils Michel-Alexandre Mery, conseiller-maître en la Chambre des comptes de Normandie et conseiller municipal de Rouen.
+Il connut de nombreuses transformations au cours des siècles, jusqu'à devenir ce grand manoir néo-normand aux toitures inspirées des plus belles maisons de Rouen et aux façades habillées d'un curieux trompe-l'œil, réalisation de l'architecte Charles Lassire.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Parc</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc du manoir possède le label Jardin remarquable.
 </t>
